--- a/python-in-excel-checkbox-driven-vizzes.xlsx
+++ b/python-in-excel-checkbox-driven-vizzes.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2792D8A9-3715-41B0-ACC6-7B4F224D7D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEF4DFA-5D4E-46CC-BBB8-B0518CD7018E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,74 +47,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="10">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="13"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="17"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="21"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="28"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="31"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="35"/>
+          <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
@@ -125,36 +68,12 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="10">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
-    </bk>
-    <bk>
-      <rc t="2" v="3"/>
-    </bk>
-    <bk>
-      <rc t="2" v="4"/>
-    </bk>
-    <bk>
-      <rc t="2" v="5"/>
-    </bk>
-    <bk>
-      <rc t="2" v="6"/>
-    </bk>
-    <bk>
-      <rc t="2" v="7"/>
-    </bk>
-    <bk>
-      <rc t="2" v="8"/>
-    </bk>
-    <bk>
-      <rc t="2" v="9"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -187,9 +106,7 @@
     elif hasattr(value, '__iter__') and not isinstance(value, str):
         return list(value)  # Handle other iterable types
     else:
-        return [value]  # Wrap scalars in a list
-origin_select = force_to_list(xl(%P2%))
-origin_select</code>
+        return [value]  # Wrap scalars in a list</code>
     </pythonScript>
     <pythonScript>
       <code>mpg_df = xl(%P2%, headers=True)
@@ -197,124 +114,12 @@
 sns.scatterplot(x='weight', y='mpg', hue='origin', data=mpg_filtered)
 plt.title('MPG vs weight by origin')</code>
     </pythonScript>
-    <pythonScript>
-      <code>Table1_df=xl(%P2%, headers=True)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Generate descriptive statistics for the dataset
-Table1_df.describe()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Generate visualizations for the dashboard
-#Generate visualizations for the dashboard
-fig, axes = plt.subplots(3, 2, figsize=(15, 15))
-# Distribution of mpg
-sns.histplot(Table1_df['mpg'], kde=True, ax=axes[0, 0])
-axes[0, 0].set_title('Distribution of MPG')
-axes[0, 0].set_xlabel('MPG')
-axes[0, 0].set_ylabel('Frequency')
-# Distribution of cylinders
-sns.countplot(x='cylinders', data=Table1_df, ax=axes[0, 1])
-axes[0, 1].set_title('Distribution of Cylinders')
-axes[0, 1].set_xlabel('Cylinders')
-axes[0, 1].set_ylabel('Count')
-# Scatter plot of horsepower vs. weight
-sns.scatterplot(x='horsepower', y='weight', data=Table1_df, ax=axes[1, 0])
-axes[1, 0].set_title('Horsepower vs. Weight')
-axes[1, 0].set_xlabel('Horsepower')
-axes[1, 0].set_ylabel('Weight')
-# Box plot of mpg by origin
-sns.boxplot(x='origin', y='mpg', data=Table1_df, ax=axes[1, 1])
-axes[1, 1].set_title('MPG by Origin')
-axes[1, 1].set_xlabel('Origin')
-axes[1, 1].set_ylabel('MPG')
-# Trend of mpg over model years
-sns.lineplot(x='model_year', y='mpg', data=Table1_df, ax=axes[2, 0])
-axes[2, 0].set_title('Trend of MPG over Model Years')
-axes[2, 0].set_xlabel('Model Year')
-axes[2, 0].set_ylabel('MPG')
-# Correlation heatmap of numerical variables (excluding 'origin')
-numerical_df = Table1_df.drop(columns=['origin'])
-sns.heatmap(numerical_df.corr(), annot=True, cmap='coolwarm', ax=axes[2, 1])
-axes[2, 1].set_title('Correlation Heatmap')
-axes[2, 1].set_xlabel('Variables')
-axes[2, 1].set_ylabel('Variables')
-plt.tight_layout()
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Distribution of MPG
-# Distribution of mpg
-plt.figure(figsize=(10, 6))
-sns.histplot(Table1_df['mpg'], kde=True)
-plt.title('Distribution of MPG')
-plt.xlabel('MPG')
-plt.ylabel('Frequency')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Distribution of Cylinders
-#Distribution of Cylinders
-plt.figure(figsize=(10, 6))
-sns.countplot(x='cylinders', data=Table1_df)
-plt.title('Distribution of Cylinders')
-plt.xlabel('Cylinders')
-plt.ylabel('Count')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Horsepower vs. Weight
-#Horsepower vs. Weight
-#Scatter plot of horsepower vs. weight
-plt.figure(figsize=(10, 6))
-sns.scatterplot(x='horsepower', y='weight', data=Table1_df)
-plt.title('Horsepower vs. Weight')
-plt.xlabel('Horsepower')
-plt.ylabel('Weight')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#MPG by Origin
-#MPG by Origin
-#Box plot of mpg by origin
-plt.figure(figsize=(10, 6))
-sns.boxplot(x='origin', y='mpg', data=Table1_df)
-plt.title('MPG by Origin')
-plt.xlabel('Origin')
-plt.ylabel('MPG')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Trend of MPG over Model Years
-#Trend of MPG over Model Years
-#Trend of MPG over Model Years
-#Line plot of mpg over model years
-plt.figure(figsize=(10, 6))
-sns.lineplot(x='model_year', y='mpg', data=Table1_df)
-plt.title('Trend of MPG over Model Years')
-plt.xlabel('Model Year')
-plt.ylabel('MPG')
-plt.show()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>#Correlation Heatmap
-#Correlation Heatmap
-#Correlation Heatmap
-#Correlation heatmap of numerical variables (excluding 'origin')
-numerical_df = Table1_df.drop(columns=['origin'])
-plt.figure(figsize=(10, 6))
-sns.heatmap(numerical_df.corr(), annot=True, cmap='coolwarm')
-plt.title('Correlation Heatmap')
-plt.xlabel('Variables')
-plt.ylabel('Variables')
-plt.show()</code>
-    </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -348,48 +153,12 @@
   <si>
     <t>europe</t>
   </si>
-  <si>
-    <t>Analysis Sheet</t>
-  </si>
-  <si>
-    <t>This sheet will include all the Python formulas generated by Copilot.</t>
-  </si>
-  <si>
-    <t>Load data from mpg, Table1</t>
-  </si>
-  <si>
-    <t>Preview</t>
-  </si>
-  <si>
-    <t>Generate descriptive statistics for the dataset</t>
-  </si>
-  <si>
-    <t>Generate visualizations for the dashboard</t>
-  </si>
-  <si>
-    <t>Distribution of MPG</t>
-  </si>
-  <si>
-    <t>Distribution of Cylinders</t>
-  </si>
-  <si>
-    <t>Horsepower vs. Weight</t>
-  </si>
-  <si>
-    <t>MPG by Origin</t>
-  </si>
-  <si>
-    <t>Trend of MPG over Model Years</t>
-  </si>
-  <si>
-    <t>Correlation Heatmap</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -520,30 +289,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FF156082"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF156082"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,11 +635,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -970,8 +712,8 @@
       <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>972389</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>659424</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>187842</xdr:rowOff>
     </xdr:to>
@@ -1013,23 +755,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>857249</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>251732</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>825909</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>48121</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>957082</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6216DE7F-3CD5-C2BE-BB76-D842BD1FD4FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34058670-B6C2-0FDA-D136-F6018E511379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1050,395 +792,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12246428" y="1843768"/>
-          <a:ext cx="5193802" cy="3776479"/>
+          <a:off x="11157857" y="1700893"/>
+          <a:ext cx="5148082" cy="4142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" title="Generate visualizations for the dashboard">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA496B9-607D-FA64-ED1E-D48BD926022C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A39"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10358437"/>
-          <a:ext cx="4267200" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" title="Distribution of MPG">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C891D48A-3253-FEF3-8AE0-70FC29B62D32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A59"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="15859125"/>
-          <a:ext cx="6592628" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254466</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" title="Distribution of Cylinders">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1359F0E-A9E0-50CF-346B-B896C4D6FB2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A79"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="21193125"/>
-          <a:ext cx="6655266" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>324934</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" title="Horsepower vs. Weight">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF53124-8447-1EB0-2FD9-6165EF9EB7CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A99"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="26527125"/>
-          <a:ext cx="6725734" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" title="MPG by Origin">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D0B2C6-0A31-8579-ECB9-779CCC264D44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A119"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="31861125"/>
-          <a:ext cx="6592628" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>191828</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" title="Trend of MPG over Model Years">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D1E768-B62E-A714-E58A-2C42F8CBF0A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A139"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="37195125"/>
-          <a:ext cx="6592628" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>465869</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" title="Correlation Heatmap">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878C012B-6A63-BB37-2033-568A89B49D46}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A159"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="42529125"/>
-          <a:ext cx="6866669" cy="4267200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1503,510 +862,64 @@
 </rvTypesInfo>
 </file>
 
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
-  <a r="2">
-    <v>563</v>
-    <v>453</v>
-  </a>
-  <a r="12" c="9">
-    <v t="s"/>
-    <v t="s">mpg</v>
-    <v t="s">cylinders</v>
-    <v t="s">displacement</v>
-    <v t="s">horsepower</v>
-    <v t="s">weight</v>
-    <v t="s">acceleration</v>
-    <v t="s">model_year</v>
-    <v t="s">origin</v>
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <fb>0</fb>
     <v>0</v>
-    <v>18</v>
-    <v>8</v>
-    <v>307</v>
-    <v>130</v>
-    <v>3504</v>
-    <v>12</v>
-    <v>70</v>
-    <v t="s">usa</v>
-    <v>1</v>
-    <v>15</v>
-    <v>8</v>
-    <v>350</v>
-    <v>165</v>
-    <v>3693</v>
-    <v>11.5</v>
-    <v>70</v>
-    <v t="s">usa</v>
-    <v>2</v>
-    <v>18</v>
-    <v>8</v>
-    <v>318</v>
-    <v>150</v>
-    <v>3436</v>
-    <v>11</v>
-    <v>70</v>
-    <v t="s">usa</v>
-    <v>3</v>
-    <v>16</v>
-    <v>8</v>
-    <v>304</v>
-    <v>150</v>
-    <v>3433</v>
-    <v>12</v>
-    <v>70</v>
-    <v t="s">usa</v>
-    <v>4</v>
-    <v>17</v>
-    <v>8</v>
-    <v>302</v>
-    <v>140</v>
-    <v>3449</v>
-    <v>10.5</v>
-    <v>70</v>
-    <v t="s">usa</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v>393</v>
-    <v>27</v>
-    <v>4</v>
-    <v>140</v>
-    <v>86</v>
-    <v>2790</v>
-    <v>15.6</v>
-    <v>82</v>
-    <v t="s">usa</v>
-    <v>394</v>
-    <v>44</v>
-    <v>4</v>
-    <v>97</v>
-    <v>52</v>
-    <v>2130</v>
-    <v>24.6</v>
-    <v>82</v>
-    <v t="s">europe</v>
-    <v>395</v>
-    <v>32</v>
-    <v>4</v>
-    <v>135</v>
-    <v>84</v>
-    <v>2295</v>
-    <v>11.6</v>
-    <v>82</v>
-    <v t="s">usa</v>
-    <v>396</v>
-    <v>28</v>
-    <v>4</v>
-    <v>120</v>
-    <v>79</v>
-    <v>2625</v>
-    <v>18.600000000000001</v>
-    <v>82</v>
-    <v t="s">usa</v>
-    <v>397</v>
-    <v>31</v>
-    <v>4</v>
-    <v>119</v>
-    <v>82</v>
-    <v>2720</v>
-    <v>19.399999999999999</v>
-    <v>82</v>
-    <v t="s">usa</v>
-  </a>
-  <a r="9" c="8">
-    <v t="s"/>
-    <v t="s">mpg</v>
-    <v t="s">cylinders</v>
-    <v t="s">displacement</v>
-    <v t="s">horsepower</v>
-    <v t="s">weight</v>
-    <v t="s">acceleration</v>
-    <v t="s">model_year</v>
-    <v t="s">count</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v>392</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v t="s">mean</v>
-    <v>23.514572864321607</v>
-    <v>5.4547738693467336</v>
-    <v>193.42587939698493</v>
-    <v>104.46938775510205</v>
-    <v>2970.424623115578</v>
-    <v>15.568090452261307</v>
-    <v>76.010050251256288</v>
-    <v t="s">std</v>
-    <v>7.8159843125657824</v>
-    <v>1.7010042445332094</v>
-    <v>104.26983817119581</v>
-    <v>38.491159932828552</v>
-    <v>846.84177419732714</v>
-    <v>2.7576889298126757</v>
-    <v>3.6976266467326231</v>
-    <v t="s">min</v>
-    <v>9</v>
-    <v>3</v>
-    <v>68</v>
-    <v>46</v>
-    <v>1613</v>
-    <v>8</v>
-    <v>70</v>
-    <v t="s">25%</v>
-    <v>17.5</v>
-    <v>4</v>
-    <v>104.25</v>
-    <v>75</v>
-    <v>2223.75</v>
-    <v>13.825000000000001</v>
-    <v>73</v>
-    <v t="s">50%</v>
-    <v>23</v>
-    <v>4</v>
-    <v>148.5</v>
-    <v>93.5</v>
-    <v>2803.5</v>
-    <v>15.5</v>
-    <v>76</v>
-    <v t="s">75%</v>
-    <v>29</v>
-    <v>8</v>
-    <v>262</v>
-    <v>126</v>
-    <v>3608</v>
-    <v>17.175000000000001</v>
-    <v>79</v>
-    <v t="s">max</v>
-    <v>46.6</v>
-    <v>8</v>
-    <v>455</v>
-    <v>230</v>
-    <v>5140</v>
-    <v>24.8</v>
-    <v>82</v>
-  </a>
-  <a r="2">
-    <v>1489</v>
-    <v>1489</v>
-  </a>
-  <a r="2">
-    <v>842</v>
-    <v>545</v>
-  </a>
-  <a r="2">
-    <v>850</v>
-    <v>545</v>
-  </a>
-  <a r="2">
-    <v>859</v>
-    <v>545</v>
-  </a>
-  <a r="2">
-    <v>877</v>
-    <v>545</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="36">
-  <rv s="0">
-    <v>0</v>
-    <v>9</v>
   </rv>
   <rv s="1">
     <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>0</v>
-    <v>1</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=563x453 at 0x7F79F0E843E0&gt;</v>
-    <v>2</v>
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>1</v>
-  </rv>
-  <rv s="4">
-    <v>DataFrame</v>
-    <v>3</v>
-    <v>4</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
-0    18.0          8         307.0       130.0    3504          12.0   
-1    15.0          8         350.0       165.0    3693          11.5   
-2    18.0          8         318.0  ...</v>
-    <v>5</v>
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>2</v>
-  </rv>
-  <rv s="4">
-    <v>DataFrame</v>
-    <v>5</v>
-    <v>7</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">              mpg   cylinders  displacement  horsepower       weight  \
-count  398.000000  398.000000    398.000000  392.000000   398.000000   
-mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
-std      7.815984    1.701004    104...</v>
-    <v>8</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
     <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>3</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>10</v>
-    <v>11</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1489x1489 at 0x7F79F254CE30&gt;</v>
-    <v>12</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>4</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>14</v>
-    <v>15</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F79F254CA40&gt;</v>
-    <v>16</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>5</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>18</v>
-    <v>19</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=850x545 at 0x7F79F0E86390&gt;</v>
-    <v>20</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>6</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>22</v>
-    <v>23</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=859x545 at 0x7F79F0ED7470&gt;</v>
-    <v>24</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>9</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>26</v>
-    <v>15</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F79F17A7D70&gt;</v>
-    <v>27</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-    <v>9</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>29</v>
-    <v>15</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=842x545 at 0x7F79F23B1010&gt;</v>
-    <v>30</v>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <v>7</v>
-    <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>7</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>32</v>
-    <v>33</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=877x545 at 0x7F79EF42B0E0&gt;</v>
-    <v>34</v>
-    <v>1</v>
+    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
-  </s>
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_Format" t="spb"/>
-    <k n="image" t="r"/>
-    <k n="size" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-    <k n="_Provider" t="spb"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="6">
+  <spbData count="1">
     <spb s="0">
       <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>https://www.anaconda.com/excel</v>
-      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
-      <v>Python provided by Anaconda</v>
-    </spb>
-    <spb s="2">
-      <v>398</v>
-      <v>8</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="3">
-      <v>2</v>
-    </spb>
-    <spb s="2">
-      <v>8</v>
-      <v>7</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="3">
-      <v>4</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
   <s>
-    <k n="image" t="i"/>
-  </s>
-  <s>
-    <k n="link" t="s"/>
-    <k n="logo" t="s"/>
-    <k n="name" t="s"/>
-  </s>
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
+    <k n="_Self" t="i"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="1">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+  </dxfs>
   <richProperties>
-    <rPr n="IsHeroField" t="b"/>
+    <rPr n="NumberFormat" t="s"/>
   </richProperties>
   <richStyles>
-    <rSty>
-      <rpv i="0">1</rpv>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"None"</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -2015,18 +928,11 @@
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
-  <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
-  <rel r:id="rId6"/>
-  <rel r:id="rId7"/>
-  <rel r:id="rId8"/>
 </richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}" name="Table1" displayName="Table1" ref="A1:H399" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
   <autoFilter ref="A1:H399" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8EC16392-B97D-4D72-923A-FCD411E0690F}" name="mpg"/>
@@ -2342,7 +1248,7 @@
   <dimension ref="A1:O399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -2352,6 +1258,7 @@
     <col min="4" max="4" width="11.54296875" customWidth="1"/>
     <col min="6" max="6" width="11.76953125" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="13" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2380,20 +1287,20 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="b">
-        <v>1</v>
+      <c r="J1" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K1" t="str" cm="1">
-        <f t="array" ref="K1:K3">_xlfn.UNIQUE(Table1[origin])</f>
+        <f t="array" ref="K1:K3">_xlfn.UNIQUE(mpg[origin])</f>
         <v>usa</v>
       </c>
       <c r="M1" t="str" cm="1">
-        <f t="array" aca="1" ref="M1:M3" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(K1), OFFSET(_xlfn.ANCHORARRAY(K1), , -1) = TRUE)</f>
-        <v>usa</v>
-      </c>
-      <c r="O1" t="str" cm="1">
-        <f t="array" aca="1" ref="O1:O3" ca="1">_xlfn._xlws.PY(0,0,_xlfn.ANCHORARRAY(M1))</f>
-        <v>usa</v>
+        <f t="array" aca="1" ref="M1:M2" ca="1">_xlfn._xlws.FILTER(_xlfn.ANCHORARRAY(K1), OFFSET(_xlfn.ANCHORARRAY(K1), , -1) = TRUE, "Please make a selection.")</f>
+        <v>japan</v>
+      </c>
+      <c r="O1" cm="1" vm="1">
+        <f t="array" ref="O1">_xlfn._xlws.PY(0,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.65">
@@ -2421,7 +1328,7 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="b">
+      <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K2" t="str">
@@ -2429,11 +1336,7 @@
       </c>
       <c r="M2" t="str">
         <f ca="1"/>
-        <v>japan</v>
-      </c>
-      <c r="O2" t="str">
-        <f ca="1"/>
-        <v>japan</v>
+        <v>europe</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.65">
@@ -2461,18 +1364,10 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="b">
+      <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>europe</v>
-      </c>
-      <c r="M3" t="str">
-        <f ca="1"/>
-        <v>europe</v>
-      </c>
-      <c r="O3" t="str">
-        <f ca="1"/>
         <v>europe</v>
       </c>
     </row>
@@ -2579,8 +1474,8 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="J7" ca="1">_xlfn._xlws.PY(1,1,Table1[#All],_xlfn.ANCHORARRAY(M1))</f>
+      <c r="J7" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="J7" ca="1">_xlfn._xlws.PY(1,0,mpg[#All],_xlfn.ANCHORARRAY(M1))</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -12765,901 +11660,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D2CC4-E53A-4417-A77A-7366050EC0C8}">
-  <dimension ref="A1:I159"/>
-  <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" x14ac:dyDescent="0.9">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A6" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="A6" ca="1">_xlfn._xlws.PY(2,1,Table1[[#Headers],[#Data]])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A9" t="str" cm="1">
-        <f t="array" aca="1" ref="A9:I20" ca="1">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
-        <v/>
-      </c>
-      <c r="B9" t="str">
-        <f ca="1"/>
-        <v>mpg</v>
-      </c>
-      <c r="C9" t="str">
-        <f ca="1"/>
-        <v>cylinders</v>
-      </c>
-      <c r="D9" t="str">
-        <f ca="1"/>
-        <v>displacement</v>
-      </c>
-      <c r="E9" t="str">
-        <f ca="1"/>
-        <v>horsepower</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1"/>
-        <v>weight</v>
-      </c>
-      <c r="G9" t="str">
-        <f ca="1"/>
-        <v>acceleration</v>
-      </c>
-      <c r="H9" t="str">
-        <f ca="1"/>
-        <v>model_year</v>
-      </c>
-      <c r="I9" t="str">
-        <f ca="1"/>
-        <v>origin</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A10">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f ca="1"/>
-        <v>307</v>
-      </c>
-      <c r="E10">
-        <f ca="1"/>
-        <v>130</v>
-      </c>
-      <c r="F10">
-        <f ca="1"/>
-        <v>3504</v>
-      </c>
-      <c r="G10">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="I10" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A11">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <f ca="1"/>
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <f ca="1"/>
-        <v>350</v>
-      </c>
-      <c r="E11">
-        <f ca="1"/>
-        <v>165</v>
-      </c>
-      <c r="F11">
-        <f ca="1"/>
-        <v>3693</v>
-      </c>
-      <c r="G11">
-        <f ca="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="H11">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="I11" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A12">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <f ca="1"/>
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <f ca="1"/>
-        <v>318</v>
-      </c>
-      <c r="E12">
-        <f ca="1"/>
-        <v>150</v>
-      </c>
-      <c r="F12">
-        <f ca="1"/>
-        <v>3436</v>
-      </c>
-      <c r="G12">
-        <f ca="1"/>
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="I12" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f ca="1"/>
-        <v>304</v>
-      </c>
-      <c r="E13">
-        <f ca="1"/>
-        <v>150</v>
-      </c>
-      <c r="F13">
-        <f ca="1"/>
-        <v>3433</v>
-      </c>
-      <c r="G13">
-        <f ca="1"/>
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="I13" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A14">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <f ca="1"/>
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <f ca="1"/>
-        <v>302</v>
-      </c>
-      <c r="E14">
-        <f ca="1"/>
-        <v>140</v>
-      </c>
-      <c r="F14">
-        <f ca="1"/>
-        <v>3449</v>
-      </c>
-      <c r="G14">
-        <f ca="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="H14">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-      <c r="I14" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="B15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="C15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="D15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="E15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="F15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="G15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="H15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-      <c r="I15" t="str">
-        <f ca="1"/>
-        <v>...</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A16">
-        <f ca="1"/>
-        <v>393</v>
-      </c>
-      <c r="B16">
-        <f ca="1"/>
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <f ca="1"/>
-        <v>140</v>
-      </c>
-      <c r="E16">
-        <f ca="1"/>
-        <v>86</v>
-      </c>
-      <c r="F16">
-        <f ca="1"/>
-        <v>2790</v>
-      </c>
-      <c r="G16">
-        <f ca="1"/>
-        <v>15.6</v>
-      </c>
-      <c r="H16">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="I16" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A17">
-        <f ca="1"/>
-        <v>394</v>
-      </c>
-      <c r="B17">
-        <f ca="1"/>
-        <v>44</v>
-      </c>
-      <c r="C17">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <f ca="1"/>
-        <v>97</v>
-      </c>
-      <c r="E17">
-        <f ca="1"/>
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <f ca="1"/>
-        <v>2130</v>
-      </c>
-      <c r="G17">
-        <f ca="1"/>
-        <v>24.6</v>
-      </c>
-      <c r="H17">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="I17" t="str">
-        <f ca="1"/>
-        <v>europe</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A18">
-        <f ca="1"/>
-        <v>395</v>
-      </c>
-      <c r="B18">
-        <f ca="1"/>
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <f ca="1"/>
-        <v>135</v>
-      </c>
-      <c r="E18">
-        <f ca="1"/>
-        <v>84</v>
-      </c>
-      <c r="F18">
-        <f ca="1"/>
-        <v>2295</v>
-      </c>
-      <c r="G18">
-        <f ca="1"/>
-        <v>11.6</v>
-      </c>
-      <c r="H18">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="I18" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A19">
-        <f ca="1"/>
-        <v>396</v>
-      </c>
-      <c r="B19">
-        <f ca="1"/>
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <f ca="1"/>
-        <v>120</v>
-      </c>
-      <c r="E19">
-        <f ca="1"/>
-        <v>79</v>
-      </c>
-      <c r="F19">
-        <f ca="1"/>
-        <v>2625</v>
-      </c>
-      <c r="G19">
-        <f ca="1"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H19">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="I19" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A20">
-        <f ca="1"/>
-        <v>397</v>
-      </c>
-      <c r="B20">
-        <f ca="1"/>
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D20">
-        <f ca="1"/>
-        <v>119</v>
-      </c>
-      <c r="E20">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="F20">
-        <f ca="1"/>
-        <v>2720</v>
-      </c>
-      <c r="G20">
-        <f ca="1"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="H20">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-      <c r="I20" t="str">
-        <f ca="1"/>
-        <v>usa</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A24" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="A24" ca="1">_xlfn._xlws.PY(3,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A27" t="str" cm="1">
-        <f t="array" aca="1" ref="A27:H35" ca="1">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
-        <v/>
-      </c>
-      <c r="B27" t="str">
-        <f ca="1"/>
-        <v>mpg</v>
-      </c>
-      <c r="C27" t="str">
-        <f ca="1"/>
-        <v>cylinders</v>
-      </c>
-      <c r="D27" t="str">
-        <f ca="1"/>
-        <v>displacement</v>
-      </c>
-      <c r="E27" t="str">
-        <f ca="1"/>
-        <v>horsepower</v>
-      </c>
-      <c r="F27" t="str">
-        <f ca="1"/>
-        <v>weight</v>
-      </c>
-      <c r="G27" t="str">
-        <f ca="1"/>
-        <v>acceleration</v>
-      </c>
-      <c r="H27" t="str">
-        <f ca="1"/>
-        <v>model_year</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A28" t="str">
-        <f ca="1"/>
-        <v>count</v>
-      </c>
-      <c r="B28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-      <c r="C28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-      <c r="D28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-      <c r="E28">
-        <f ca="1"/>
-        <v>392</v>
-      </c>
-      <c r="F28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-      <c r="G28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-      <c r="H28">
-        <f ca="1"/>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A29" t="str">
-        <f ca="1"/>
-        <v>mean</v>
-      </c>
-      <c r="B29">
-        <f ca="1"/>
-        <v>23.514572864321607</v>
-      </c>
-      <c r="C29">
-        <f ca="1"/>
-        <v>5.4547738693467336</v>
-      </c>
-      <c r="D29">
-        <f ca="1"/>
-        <v>193.42587939698493</v>
-      </c>
-      <c r="E29">
-        <f ca="1"/>
-        <v>104.46938775510205</v>
-      </c>
-      <c r="F29">
-        <f ca="1"/>
-        <v>2970.424623115578</v>
-      </c>
-      <c r="G29">
-        <f ca="1"/>
-        <v>15.568090452261307</v>
-      </c>
-      <c r="H29">
-        <f ca="1"/>
-        <v>76.010050251256288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A30" t="str">
-        <f ca="1"/>
-        <v>std</v>
-      </c>
-      <c r="B30">
-        <f ca="1"/>
-        <v>7.8159843125657824</v>
-      </c>
-      <c r="C30">
-        <f ca="1"/>
-        <v>1.7010042445332094</v>
-      </c>
-      <c r="D30">
-        <f ca="1"/>
-        <v>104.26983817119581</v>
-      </c>
-      <c r="E30">
-        <f ca="1"/>
-        <v>38.491159932828552</v>
-      </c>
-      <c r="F30">
-        <f ca="1"/>
-        <v>846.84177419732714</v>
-      </c>
-      <c r="G30">
-        <f ca="1"/>
-        <v>2.7576889298126757</v>
-      </c>
-      <c r="H30">
-        <f ca="1"/>
-        <v>3.6976266467326231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A31" t="str">
-        <f ca="1"/>
-        <v>min</v>
-      </c>
-      <c r="B31">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <f ca="1"/>
-        <v>68</v>
-      </c>
-      <c r="E31">
-        <f ca="1"/>
-        <v>46</v>
-      </c>
-      <c r="F31">
-        <f ca="1"/>
-        <v>1613</v>
-      </c>
-      <c r="G31">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="H31">
-        <f ca="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="A32" t="str">
-        <f ca="1"/>
-        <v>25%</v>
-      </c>
-      <c r="B32">
-        <f ca="1"/>
-        <v>17.5</v>
-      </c>
-      <c r="C32">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <f ca="1"/>
-        <v>104.25</v>
-      </c>
-      <c r="E32">
-        <f ca="1"/>
-        <v>75</v>
-      </c>
-      <c r="F32">
-        <f ca="1"/>
-        <v>2223.75</v>
-      </c>
-      <c r="G32">
-        <f ca="1"/>
-        <v>13.825000000000001</v>
-      </c>
-      <c r="H32">
-        <f ca="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A33" t="str">
-        <f ca="1"/>
-        <v>50%</v>
-      </c>
-      <c r="B33">
-        <f ca="1"/>
-        <v>23</v>
-      </c>
-      <c r="C33">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <f ca="1"/>
-        <v>148.5</v>
-      </c>
-      <c r="E33">
-        <f ca="1"/>
-        <v>93.5</v>
-      </c>
-      <c r="F33">
-        <f ca="1"/>
-        <v>2803.5</v>
-      </c>
-      <c r="G33">
-        <f ca="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="H33">
-        <f ca="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A34" t="str">
-        <f ca="1"/>
-        <v>75%</v>
-      </c>
-      <c r="B34">
-        <f ca="1"/>
-        <v>29</v>
-      </c>
-      <c r="C34">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <f ca="1"/>
-        <v>262</v>
-      </c>
-      <c r="E34">
-        <f ca="1"/>
-        <v>126</v>
-      </c>
-      <c r="F34">
-        <f ca="1"/>
-        <v>3608</v>
-      </c>
-      <c r="G34">
-        <f ca="1"/>
-        <v>17.175000000000001</v>
-      </c>
-      <c r="H34">
-        <f ca="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A35" t="str">
-        <f ca="1"/>
-        <v>max</v>
-      </c>
-      <c r="B35">
-        <f ca="1"/>
-        <v>46.6</v>
-      </c>
-      <c r="C35">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <f ca="1"/>
-        <v>455</v>
-      </c>
-      <c r="E35">
-        <f ca="1"/>
-        <v>230</v>
-      </c>
-      <c r="F35">
-        <f ca="1"/>
-        <v>5140</v>
-      </c>
-      <c r="G35">
-        <f ca="1"/>
-        <v>24.8</v>
-      </c>
-      <c r="H35">
-        <f ca="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A39" t="e" cm="1" vm="4">
-        <f t="array" aca="1" ref="A39" ca="1">_xlfn._xlws.PY(4,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A58" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A59" t="e" cm="1" vm="5">
-        <f t="array" aca="1" ref="A59" ca="1">_xlfn._xlws.PY(5,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A78" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A79" t="e" cm="1" vm="6">
-        <f t="array" aca="1" ref="A79" ca="1">_xlfn._xlws.PY(6,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A98" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A99" t="e" cm="1" vm="7">
-        <f t="array" aca="1" ref="A99" ca="1">_xlfn._xlws.PY(7,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A118" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A119" t="e" cm="1" vm="8">
-        <f t="array" aca="1" ref="A119" ca="1">_xlfn._xlws.PY(8,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A138" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A139" t="e" cm="1" vm="9">
-        <f t="array" aca="1" ref="A139" ca="1">_xlfn._xlws.PY(9,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A158" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A159" t="e" cm="1" vm="10">
-        <f t="array" aca="1" ref="A159" ca="1">_xlfn._xlws.PY(10,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>